--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -108,45 +108,6 @@
     <t>Day 1</t>
   </si>
   <si>
-    <t>Story 1</t>
-  </si>
-  <si>
-    <t>Story 2</t>
-  </si>
-  <si>
-    <t>Story 3</t>
-  </si>
-  <si>
-    <t>Story 4</t>
-  </si>
-  <si>
-    <t>Task 1.1</t>
-  </si>
-  <si>
-    <t>Task 1.2</t>
-  </si>
-  <si>
-    <t>Task 1.3</t>
-  </si>
-  <si>
-    <t>Task 3.1</t>
-  </si>
-  <si>
-    <t>Task 3.2</t>
-  </si>
-  <si>
-    <t>Task 3.3</t>
-  </si>
-  <si>
-    <t>Task 3.4</t>
-  </si>
-  <si>
-    <t>Task 4.1</t>
-  </si>
-  <si>
-    <t>Task 4.2</t>
-  </si>
-  <si>
     <t>Ideal - Remaining efforts in uninterrupted working hours</t>
   </si>
   <si>
@@ -156,22 +117,61 @@
     <t>www.goodoldmanoj.com</t>
   </si>
   <si>
-    <t>Task 1.4</t>
-  </si>
-  <si>
-    <t>Task 1.5</t>
-  </si>
-  <si>
-    <t>Story 5</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
     <t>Burn down chart TKPPL Bespoke Flatizen</t>
   </si>
   <si>
     <t>Presentasi Flatizen</t>
+  </si>
+  <si>
+    <t>Membuat Slide Perkenalan Properti</t>
+  </si>
+  <si>
+    <t>Menjelaskan Pengertian Properti</t>
+  </si>
+  <si>
+    <t>Menjelaskan Bisnis Properti dalam gambaran besar</t>
+  </si>
+  <si>
+    <t>Menjelaskan Pemain Properti/ professional Properti</t>
+  </si>
+  <si>
+    <t>Menjelaskan Peranan Professional Properti</t>
+  </si>
+  <si>
+    <t>Menjelaskan Keuntungan/ Benefit yang ditawarkan Properti</t>
+  </si>
+  <si>
+    <t>Menjelaskan Latar Belakang</t>
+  </si>
+  <si>
+    <t>Menjelaskan Tujuan dan konsep dasar</t>
+  </si>
+  <si>
+    <t>Menjelaskan Sasaran Pasar</t>
+  </si>
+  <si>
+    <t>Membuat Slide Perkenalan Flatizen</t>
+  </si>
+  <si>
+    <t>Membuat Navigasi Penghubung Slide</t>
+  </si>
+  <si>
+    <t>Membuat Slide Teknis</t>
+  </si>
+  <si>
+    <t>Membuat Slide demo/review web Flatizen</t>
+  </si>
+  <si>
+    <t>Menjelaskan Teknologi Front end yang digunakan</t>
+  </si>
+  <si>
+    <t>Menjelaskan Teknologi Back end yang digunakan</t>
+  </si>
+  <si>
+    <t>Slide tampilan website flatizen</t>
+  </si>
+  <si>
+    <t>Membuat navigasi dan penyesuaian posisi</t>
   </si>
 </sst>
 </file>
@@ -967,14 +967,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="18" max="19" width="8.85546875" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="5" customFormat="1" ht="15.75">
@@ -983,7 +986,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -33756,7 +33759,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -50212,13 +50215,13 @@
     <row r="6" spans="1:16384">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>4</v>
@@ -50261,13 +50264,13 @@
     <row r="7" spans="1:16384">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
@@ -50310,13 +50313,13 @@
     <row r="8" spans="1:16384">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
@@ -50359,13 +50362,13 @@
     <row r="9" spans="1:16384">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -50408,13 +50411,13 @@
     <row r="10" spans="1:16384">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4">
         <v>4</v>
@@ -50457,13 +50460,13 @@
     <row r="11" spans="1:16384">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
@@ -50506,13 +50509,13 @@
     <row r="12" spans="1:16384">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4">
         <v>3</v>
@@ -50555,13 +50558,13 @@
     <row r="13" spans="1:16384">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4">
         <v>3</v>
@@ -50604,13 +50607,13 @@
     <row r="14" spans="1:16384">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4">
         <v>8</v>
@@ -50653,13 +50656,13 @@
     <row r="15" spans="1:16384">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4">
         <v>5</v>
@@ -50700,13 +50703,13 @@
     <row r="16" spans="1:16384">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
@@ -50747,13 +50750,13 @@
     <row r="17" spans="1:19">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
@@ -50817,7 +50820,7 @@
     <row r="19" spans="1:19">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -50873,7 +50876,7 @@
     <row r="20" spans="1:19">
       <c r="A20" s="1"/>
       <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
